--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.252804169171583</v>
+        <v>-1.158246574716258</v>
       </c>
       <c r="D2">
-        <v>0.2104514370367683</v>
+        <v>0.2591828707666679</v>
       </c>
       <c r="E2">
         <v>1.041819256639669</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.011761694684699</v>
+        <v>-0.9396386905507168</v>
       </c>
       <c r="D3">
-        <v>0.3117977881614804</v>
+        <v>0.3576060494037518</v>
       </c>
       <c r="E3">
         <v>1.041819256639669</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.3621551077520396</v>
+        <v>-0.3856587676128717</v>
       </c>
       <c r="D4">
-        <v>0.7172816999406644</v>
+        <v>0.703453363008347</v>
       </c>
       <c r="E4">
         <v>1.041819256639669</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.0729338972342605</v>
+        <v>0.06174926957693898</v>
       </c>
       <c r="D5">
-        <v>0.9418674067794675</v>
+        <v>0.9513200670531778</v>
       </c>
       <c r="E5">
         <v>1.041819256639669</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.1738906248907034</v>
+        <v>0.1637707048218131</v>
       </c>
       <c r="D6">
-        <v>0.861972383176409</v>
+        <v>0.8714068787166238</v>
       </c>
       <c r="E6">
         <v>1.094874596690027</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.6704067051649576</v>
+        <v>0.8116739843726634</v>
       </c>
       <c r="D7">
-        <v>0.5026907604373063</v>
+        <v>0.4256740513852633</v>
       </c>
       <c r="E7">
         <v>1.094874596690027</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.441087627135226</v>
+        <v>1.542299189524414</v>
       </c>
       <c r="D8">
-        <v>0.149746392215242</v>
+        <v>0.1372635383858023</v>
       </c>
       <c r="E8">
         <v>1.094874596690027</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.5417508156472844</v>
+        <v>0.6073900604025956</v>
       </c>
       <c r="D9">
-        <v>0.588062060163995</v>
+        <v>0.5498106075528155</v>
       </c>
       <c r="E9">
         <v>1.08596395053424</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.941185806371027</v>
+        <v>0.7959716055095506</v>
       </c>
       <c r="D10">
-        <v>0.3467450401032974</v>
+        <v>0.4345537940496706</v>
       </c>
       <c r="E10">
         <v>1.08596395053424</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.4643316181093913</v>
+        <v>0.4604424176370345</v>
       </c>
       <c r="D11">
-        <v>0.6424703738785968</v>
+        <v>0.6497175147277927</v>
       </c>
       <c r="E11">
         <v>1.059665814819984</v>
